--- a/用例数据/深A/资金前端控制/测试结果.xlsx
+++ b/用例数据/深A/资金前端控制/测试结果.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\资金前端控制\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fundquota" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="99">
   <si>
     <t>分红派息后</t>
   </si>
@@ -310,19 +315,16 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>20230224000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,352 +341,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -692,251 +364,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,84 +381,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>334010</xdr:colOff>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>276860</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1039,14 +425,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1019810" y="5000625"/>
-              <a:ext cx="628650" cy="542925"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1069,7 +466,7 @@
           <xdr:row>32</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1080,14 +477,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2057400" y="4972050"/>
-              <a:ext cx="600075" cy="542925"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1379,34 +787,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1622,7 +1030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1672,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1722,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1772,7 +1180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -1822,12 +1230,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1923,7 +1331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1955,7 +1363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1987,7 +1395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2019,7 +1427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2051,7 +1459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -2083,7 +1491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2115,7 +1523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2147,7 +1555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2179,7 +1587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -2211,7 +1619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -2244,26 +1652,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" progId="Package" r:id="rId3">
+        <oleObject progId="Package" shapeId="1025" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>334010</xdr:colOff>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>276860</xdr:colOff>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -2272,12 +1680,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" progId="Package" r:id="rId3"/>
+        <oleObject progId="Package" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" progId="Package" r:id="rId5">
+        <oleObject progId="Package" shapeId="1026" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -2297,7 +1705,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" progId="Package" r:id="rId5"/>
+        <oleObject progId="Package" shapeId="1026" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2305,35 +1713,427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>